--- a/Brain/ML/Part 2 - Regression/Section 6 - Polynomial Regression/Python/Tài liệu/Tính Polynomial Regression.xlsx
+++ b/Brain/ML/Part 2 - Regression/Section 6 - Polynomial Regression/Python/Tài liệu/Tính Polynomial Regression.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Giống sheet bên cạnh" sheetId="1" r:id="rId1"/>
     <sheet name="Ảnh Polynomial Regression" sheetId="2" r:id="rId2"/>
-    <sheet name="Polynomial Regression" sheetId="3" r:id="rId3"/>
+    <sheet name="Tính Polynomial Regression" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -39,7 +39,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -57,7 +57,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -68,7 +68,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -85,7 +85,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -96,7 +96,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -117,7 +117,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -135,7 +135,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -146,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -162,7 +162,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -173,7 +173,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -193,7 +193,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -211,7 +211,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -222,7 +222,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -238,7 +238,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -249,7 +249,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -273,7 +273,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -284,7 +284,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -294,7 +294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,7 +311,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -322,7 +322,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,7 +333,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -351,7 +351,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -362,7 +362,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -378,7 +378,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -389,7 +389,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,7 +405,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -416,7 +416,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -432,7 +432,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -443,7 +443,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -459,7 +459,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -470,7 +470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -486,7 +486,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -497,7 +497,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,7 +513,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -524,7 +524,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -808,25 +808,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cách tính vs array = [[a, b, c]]</t>
-    <phoneticPr fontId="1"/>
+    <t>VD: degree = 4 =&gt; [1, a, b, c, aa, ab, ac, bb, bc, cc, aaa, aab, aac, abb, abc, acc, bbb, bbc, bcc, ccc, aaaa, aaab, aaac, aabb, aabc, aacc, abbb, abbc, abcc, accc, bbbb, bbbc, bbcc, bccc, cccc]</t>
+  </si>
+  <si>
+    <t>tùy theo degree</t>
+  </si>
+  <si>
+    <t>formula: [1, a, b, c, aa, ab, ac, bb, bc, cc, ...]</t>
+  </si>
+  <si>
+    <t>cách tính vs 2d array = [[a, b, c]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -835,7 +843,7 @@
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -844,7 +852,7 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1154,26 +1162,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="17.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11">
       <c r="B2">
         <v>6.47</v>
       </c>
@@ -1238,7 +1246,7 @@
         <v>265011200</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11">
       <c r="B3">
         <v>6.24</v>
       </c>
@@ -1274,7 +1282,7 @@
         <v>15974400</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="B4">
         <v>5.72</v>
       </c>
@@ -1310,7 +1318,7 @@
         <v>14643200</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11">
       <c r="B5">
         <v>5.09</v>
       </c>
@@ -1346,7 +1354,7 @@
         <v>1055462400</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11">
       <c r="B6">
         <v>4.3</v>
       </c>
@@ -1382,7 +1390,7 @@
         <v>6880000000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11">
       <c r="B7">
         <v>3.33</v>
       </c>
@@ -1418,7 +1426,7 @@
         <v>20468044800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1459,7 +1467,7 @@
         <v>28699136000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11">
       <c r="A13">
         <f>COUNT(B2:B7)</f>
         <v>6</v>
@@ -1477,7 +1485,7 @@
         <v>31.15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11">
       <c r="A14">
         <f>C9</f>
         <v>-520</v>
@@ -1495,7 +1503,7 @@
         <v>-1864.7999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11">
       <c r="A15">
         <f>D9</f>
         <v>142400</v>
@@ -1512,7 +1520,7 @@
         <v>566912</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" ht="18.75">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" ht="18">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +1574,7 @@
         <v>24010000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="18">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1574,7 +1582,7 @@
         <v>6.4239610203496861E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" ht="18">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1590,7 @@
         <v>-1.113320435654902E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="18.75">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="C23">
         <f>C18*H18</f>
         <v>0.449677271424478</v>
@@ -1600,7 +1608,7 @@
         <v>-5.4552701347090199E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1621,28 +1629,28 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="12" max="13" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16">
       <c r="C1">
         <v>1</v>
       </c>
@@ -1668,7 +1676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="17.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1712,7 +1720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16">
       <c r="B3">
         <v>-1</v>
       </c>
@@ -1768,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1824,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16">
       <c r="B5">
         <v>2.5</v>
       </c>
@@ -1880,7 +1888,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1936,7 +1944,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1992,7 +2000,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2048,7 +2056,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16">
       <c r="B9">
         <v>5</v>
       </c>
@@ -2104,7 +2112,7 @@
         <v>84035</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2160,7 +2168,7 @@
         <v>236196</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>327616.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16">
       <c r="A16">
         <f>COUNT(B3:B10)</f>
         <v>8</v>
@@ -2247,7 +2255,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <f>C12</f>
         <v>26</v>
@@ -2273,7 +2281,7 @@
         <v>106.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18">
         <f>D12</f>
         <v>170</v>
@@ -2298,7 +2306,7 @@
         <v>676.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19">
         <f>E12</f>
         <v>1232</v>
@@ -2323,7 +2331,7 @@
         <v>5032.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20">
         <f>F12</f>
         <v>9686</v>
@@ -2348,7 +2356,7 @@
         <v>39904.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="18">
       <c r="B22" t="s">
         <v>10</v>
       </c>
@@ -2365,7 +2373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="18">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2387,7 +2395,7 @@
         <v>-1.1819724204849003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="18">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2395,7 +2403,7 @@
         <v>2.3014596690610531</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="18">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2403,7 +2411,7 @@
         <v>-1.2326304765171443</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="18">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2411,7 +2419,7 @@
         <v>0.21689152772994902</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="18">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2427,15 +2435,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2473,7 +2481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2499,7 +2507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2513,7 +2521,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="E4" t="s">
         <v>37</v>
       </c>
@@ -2533,7 +2541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="E5" t="s">
         <v>39</v>
       </c>
@@ -2544,7 +2552,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="E6" t="s">
         <v>40</v>
       </c>
@@ -2555,7 +2563,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="I7" t="s">
         <v>51</v>
       </c>
@@ -2569,7 +2577,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="I8" t="s">
         <v>53</v>
       </c>
@@ -2577,7 +2585,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="I9" t="s">
         <v>54</v>
       </c>
@@ -2585,7 +2593,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="I10" t="s">
         <v>55</v>
       </c>
@@ -2593,7 +2601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="M11" t="s">
         <v>71</v>
       </c>
@@ -2601,333 +2609,358 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15">
       <c r="M12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="M13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="M14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15">
       <c r="M15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
         <v>80</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>77</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E23" t="s">
         <v>31</v>
       </c>
-      <c r="F19">
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G23" t="s">
         <v>41</v>
       </c>
-      <c r="H19">
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I20" t="s">
+    <row r="24" spans="1:9">
+      <c r="I24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I21" t="s">
+    <row r="25" spans="1:9">
+      <c r="I25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G22" t="s">
+    <row r="26" spans="1:9">
+      <c r="G26" t="s">
         <v>42</v>
       </c>
-      <c r="H22">
+      <c r="H26">
         <v>2</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I23" t="s">
+    <row r="27" spans="1:9">
+      <c r="I27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G24" t="s">
+    <row r="28" spans="1:9">
+      <c r="G28" t="s">
         <v>43</v>
       </c>
-      <c r="H24">
+      <c r="H28">
         <v>3</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E25" t="s">
+    <row r="29" spans="1:9">
+      <c r="E29" t="s">
         <v>32</v>
       </c>
-      <c r="F25">
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G29" t="s">
         <v>44</v>
       </c>
-      <c r="H25">
+      <c r="H29">
         <v>4</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I26" t="s">
+    <row r="30" spans="1:9">
+      <c r="I30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G27" t="s">
+    <row r="31" spans="1:9">
+      <c r="G31" t="s">
         <v>45</v>
       </c>
-      <c r="H27">
+      <c r="H31">
         <v>6</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E28" t="s">
+    <row r="32" spans="1:9">
+      <c r="E32" t="s">
         <v>33</v>
       </c>
-      <c r="F28">
+      <c r="F32">
         <v>3</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G32" t="s">
         <v>46</v>
       </c>
-      <c r="H28">
+      <c r="H32">
         <v>9</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
+    <row r="33" spans="1:9">
+      <c r="C33" t="s">
         <v>78</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E33" t="s">
         <v>34</v>
       </c>
-      <c r="F29">
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G33" t="s">
         <v>47</v>
       </c>
-      <c r="H29">
+      <c r="H33">
         <v>8</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I30" t="s">
+    <row r="34" spans="1:9">
+      <c r="I34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G31" t="s">
+    <row r="35" spans="1:9">
+      <c r="G35" t="s">
         <v>48</v>
       </c>
-      <c r="H31">
+      <c r="H35">
         <v>12</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E32" t="s">
+    <row r="36" spans="1:9">
+      <c r="E36" t="s">
         <v>35</v>
       </c>
-      <c r="F32">
+      <c r="F36">
         <v>6</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G36" t="s">
         <v>49</v>
       </c>
-      <c r="H32">
+      <c r="H36">
         <v>18</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
+    <row r="37" spans="1:9">
+      <c r="C37" t="s">
         <v>81</v>
       </c>
-      <c r="D33">
+      <c r="D37">
         <v>3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E37" t="s">
         <v>36</v>
       </c>
-      <c r="F33">
+      <c r="F37">
         <v>9</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G37" t="s">
         <v>50</v>
       </c>
-      <c r="H33">
+      <c r="H37">
         <v>27</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
         <v>82</v>
       </c>
-      <c r="D34">
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E38" t="s">
         <v>83</v>
       </c>
-      <c r="F34">
+      <c r="F38">
         <v>8</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G38" t="s">
         <v>84</v>
       </c>
-      <c r="H34">
+      <c r="H38">
         <v>16</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I35" t="s">
+    <row r="39" spans="1:9">
+      <c r="I39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G36" t="s">
+    <row r="40" spans="1:9">
+      <c r="G40" t="s">
         <v>85</v>
       </c>
-      <c r="H36">
+      <c r="H40">
         <v>24</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E37" t="s">
+    <row r="41" spans="1:9">
+      <c r="E41" t="s">
         <v>87</v>
       </c>
-      <c r="F37">
+      <c r="F41">
         <v>12</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G41" t="s">
         <v>53</v>
       </c>
-      <c r="H37">
+      <c r="H41">
         <v>36</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C38" t="s">
+    <row r="42" spans="1:9">
+      <c r="C42" t="s">
         <v>79</v>
       </c>
-      <c r="D38">
+      <c r="D42">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E42" t="s">
         <v>39</v>
       </c>
-      <c r="F38">
+      <c r="F42">
         <v>18</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G42" t="s">
         <v>88</v>
       </c>
-      <c r="H38">
+      <c r="H42">
         <v>54</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>30</v>
       </c>
-      <c r="D39">
+      <c r="D43">
         <v>9</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E43" t="s">
         <v>90</v>
       </c>
-      <c r="F39">
+      <c r="F43">
         <v>27</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G43" t="s">
         <v>91</v>
       </c>
-      <c r="H39">
+      <c r="H43">
         <v>81</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I43" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>